--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>账号</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
@@ -660,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1010,15 +1013,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,42 +1031,53 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>3333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
